--- a/data/extractions/250507 Fiche d'extraction d'échantillons.xlsx
+++ b/data/extractions/250507 Fiche d'extraction d'échantillons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2D6FEC0D-D71C-4D77-8ACE-A93B61AA99C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08FF33FD-3F67-4548-B620-F10D070690AC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2D6FEC0D-D71C-4D77-8ACE-A93B61AA99C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A816334-CC92-46B4-AA38-2723B33958F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
@@ -342,6 +342,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,7 +649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="A12:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,26 +1094,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-11-07T15:09:32+00:00</Uploaded>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="93e6b79bffcb710984822118ae45b29f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c971e98cb6cdb6e05177eaad282d8065" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
@@ -1287,10 +1271,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-11-07T15:09:32+00:00</Uploaded>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A85AD4-1581-45EB-8229-23EFBA2FC55A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71323A1A-E7D9-4DBD-B788-78EC22CC32DD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1306,19 +1320,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71323A1A-E7D9-4DBD-B788-78EC22CC32DD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A85AD4-1581-45EB-8229-23EFBA2FC55A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>